--- a/bots/crawl_ch/output/toilet_coop_2022-07-13.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-13.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -732,123 +732,121 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>140ST</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.30 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>140ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -858,7 +856,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -873,45 +871,45 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -921,7 +919,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -931,7 +929,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -946,55 +944,55 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1004,7 +1002,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1014,46 +1012,46 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1062,12 +1060,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.40/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1077,7 +1075,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1087,117 +1085,119 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>3x 42ST</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.47/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>4489512</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1206,71 +1206,71 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1279,71 +1279,71 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1352,12 +1352,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1517,210 +1517,210 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4489511</t>
+          <t>6433417</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
+          <t>Plenty Fun Design extra Long</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>144BLT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.97/1Rol</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6433417</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>144BLT</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>4489511</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:01</t>
+          <t>2022-07-13 20:57:10</t>
         </is>
       </c>
     </row>
